--- a/data/georgia_census/racha/ambrolauri/healthcare_staff.xlsx
+++ b/data/georgia_census/racha/ambrolauri/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF93C6BF-8B8A-4468-ABF2-3FE859063E67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DBBB117-7390-4A1A-9A9E-93E9F731698E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93746232-1FFF-47D8-8C53-176C36E0695A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F88081E4-DBDA-479F-B5E0-7A5B1166161D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8C7C920-2A2D-41D2-91B9-B17013797500}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8ECDDC-6524-4798-BF09-2637F7262668}"/>
 </file>